--- a/static/files/tttfirst_mile_shipment_orders_41681422_2022-12-21-2.xlsx
+++ b/static/files/tttfirst_mile_shipment_orders_41681422_2022-12-21-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79858\Documents\Flask-App-F\filestests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79858\Documents\Flask-App-F\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615174AE-44F6-45F9-8B30-F20C52B2A195}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA87EB-B26C-45E1-A172-37AF632BAA4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,109 +39,109 @@
     <t>Дата оформления</t>
   </si>
   <si>
+    <t>Название товара</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Ваша цена (за шт.)</t>
+  </si>
+  <si>
+    <t>Статус заказа</t>
+  </si>
+  <si>
+    <t>Статус изменён</t>
+  </si>
+  <si>
+    <t>Способ оплаты</t>
+  </si>
+  <si>
+    <t>Склад отгрузки</t>
+  </si>
+  <si>
+    <t>Дата отгрузки</t>
+  </si>
+  <si>
+    <t>Регион доставки</t>
+  </si>
+  <si>
+    <t>Грузоместа</t>
+  </si>
+  <si>
+    <t>170678030</t>
+  </si>
+  <si>
+    <t>21.12.2022</t>
+  </si>
+  <si>
+    <t>30-2-2</t>
+  </si>
+  <si>
+    <t>Стеклоомывающая назамерзающая (незамерзайка) жидкость Gleid Super Effect 5л, зимняя -30. Упаковка 2 штуки</t>
+  </si>
+  <si>
+    <t>Обрабатывается</t>
+  </si>
+  <si>
+    <t>предоплата</t>
+  </si>
+  <si>
+    <t>22.12.2022</t>
+  </si>
+  <si>
+    <t>Москва и Московская область</t>
+  </si>
+  <si>
+    <t>170671202</t>
+  </si>
+  <si>
+    <t>Gleid-green-30-1</t>
+  </si>
+  <si>
+    <t>Незамерзайка, Жидкость для стеклоомывателя Gleid super effect без запаха, -30°C, 5 л.</t>
+  </si>
+  <si>
+    <t>оплата при получении</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург и Ленинградская область</t>
+  </si>
+  <si>
+    <t>170666494</t>
+  </si>
+  <si>
+    <t>170663100</t>
+  </si>
+  <si>
+    <t>Drayer</t>
+  </si>
+  <si>
+    <t>Фен для волос Фен с ионизацией Профессиональный фен Стайлер для укладки и выпрямления волос 5 в 1</t>
+  </si>
+  <si>
+    <t>Республика Марий Эл</t>
+  </si>
+  <si>
+    <t>170662353</t>
+  </si>
+  <si>
+    <t>Gleid-se-30-1</t>
+  </si>
+  <si>
+    <t>Незамерзайка, Жидкость для стеклоомывателя Gleid super effect, синяя, без запаха, -30°C, 5 л.</t>
+  </si>
+  <si>
+    <t>Краснодарский край</t>
+  </si>
+  <si>
+    <t>170660972</t>
+  </si>
+  <si>
+    <t>Воронежская область</t>
+  </si>
+  <si>
     <t>Ваш SKU</t>
-  </si>
-  <si>
-    <t>Название товара</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Ваша цена (за шт.)</t>
-  </si>
-  <si>
-    <t>Статус заказа</t>
-  </si>
-  <si>
-    <t>Статус изменён</t>
-  </si>
-  <si>
-    <t>Способ оплаты</t>
-  </si>
-  <si>
-    <t>Склад отгрузки</t>
-  </si>
-  <si>
-    <t>Дата отгрузки</t>
-  </si>
-  <si>
-    <t>Регион доставки</t>
-  </si>
-  <si>
-    <t>Грузоместа</t>
-  </si>
-  <si>
-    <t>170678030</t>
-  </si>
-  <si>
-    <t>21.12.2022</t>
-  </si>
-  <si>
-    <t>30-2-2</t>
-  </si>
-  <si>
-    <t>Стеклоомывающая назамерзающая (незамерзайка) жидкость Gleid Super Effect 5л, зимняя -30. Упаковка 2 штуки</t>
-  </si>
-  <si>
-    <t>Обрабатывается</t>
-  </si>
-  <si>
-    <t>предоплата</t>
-  </si>
-  <si>
-    <t>22.12.2022</t>
-  </si>
-  <si>
-    <t>Москва и Московская область</t>
-  </si>
-  <si>
-    <t>170671202</t>
-  </si>
-  <si>
-    <t>Gleid-green-30-1</t>
-  </si>
-  <si>
-    <t>Незамерзайка, Жидкость для стеклоомывателя Gleid super effect без запаха, -30°C, 5 л.</t>
-  </si>
-  <si>
-    <t>оплата при получении</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург и Ленинградская область</t>
-  </si>
-  <si>
-    <t>170666494</t>
-  </si>
-  <si>
-    <t>170663100</t>
-  </si>
-  <si>
-    <t>Drayer</t>
-  </si>
-  <si>
-    <t>Фен для волос Фен с ионизацией Профессиональный фен Стайлер для укладки и выпрямления волос 5 в 1</t>
-  </si>
-  <si>
-    <t>Республика Марий Эл</t>
-  </si>
-  <si>
-    <t>170662353</t>
-  </si>
-  <si>
-    <t>Gleid-se-30-1</t>
-  </si>
-  <si>
-    <t>Незамерзайка, Жидкость для стеклоомывателя Gleid super effect, синяя, без запаха, -30°C, 5 л.</t>
-  </si>
-  <si>
-    <t>Краснодарский край</t>
-  </si>
-  <si>
-    <t>170660972</t>
-  </si>
-  <si>
-    <t>Воронежская область</t>
   </si>
 </sst>
 </file>
@@ -254,6 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +654,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,24 +676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,37 +704,37 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -742,16 +742,16 @@
         <v>170678030</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -760,23 +760,23 @@
         <v>321</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -784,16 +784,16 @@
         <v>170671202</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -802,23 +802,23 @@
         <v>169</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="3">
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -826,16 +826,16 @@
         <v>170666494</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -844,23 +844,23 @@
         <v>152</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -868,16 +868,16 @@
         <v>170663100</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -886,23 +886,23 @@
         <v>3331</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -910,16 +910,16 @@
         <v>170662353</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -928,23 +928,23 @@
         <v>219</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -952,16 +952,16 @@
         <v>170660972</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -970,23 +970,23 @@
         <v>2831</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
